--- a/DateBase/orders/Nha Thu_2025-9-27.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-27.xlsx
@@ -793,6 +793,9 @@
       <c r="G2" t="str">
         <v>0161310106110206671092131010551520401510553015101035205100</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
